--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\song\Desktop\2018 하반기 방학\개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72780BFA-7513-4FED-AB24-80A9ABEFD9D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C1056-38C8-429E-930D-395E7F8D1C67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-2460" windowWidth="24240" windowHeight="13740" xr2:uid="{4AF6358A-5B52-49D4-9750-470F0E4E6DA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4AF6358A-5B52-49D4-9750-470F0E4E6DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">전에 어디 있는 줄 기록하여 전에만 안나오게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +100,42 @@
   </si>
   <si>
     <t>만들 그룹 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Group_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성멤버십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -323,6 +349,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -335,13 +370,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -392,6 +424,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -711,14 +764,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD0C31-2992-41C7-9A40-826EC9DA44FD}">
   <dimension ref="E4:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="11.4140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="17.4140625" customWidth="1"/>
     <col min="15" max="15" width="14.9140625" customWidth="1"/>
@@ -726,302 +781,368 @@
   <sheetData>
     <row r="4" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="18">
+      <c r="P6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <f ca="1">INT(RAND()*13)+1</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="14" t="s">
+      <c r="O7" s="5">
+        <f ca="1">MOD(N7,4)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E7" s="2">
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ref="N8:N19" ca="1" si="0">INT(RAND()*13)+1</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="5">
+        <f ca="1">MOD(N8,4)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="6"/>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9:O19" ca="1" si="1">MOD(N9,4)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="6"/>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="8"/>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E14" s="1">
+        <v>8</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="1">
+        <v>8</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E15" s="1">
+        <v>9</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="1">
+        <v>9</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="6">
-        <f ca="1">INT(RAND()*13)+1</f>
-        <v>13</v>
-      </c>
-      <c r="O7" s="6">
-        <f ca="1">MOD(N7,4)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E8" s="2">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" ref="N8:N19" ca="1" si="0">INT(RAND()*13)+1</f>
-        <v>7</v>
-      </c>
-      <c r="O8" s="6">
-        <f ca="1">MOD(N8,4)</f>
-        <v>3</v>
-      </c>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>3</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" ref="O8:O19" ca="1" si="1">MOD(N9,4)</f>
-        <v>3</v>
-      </c>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E10" s="2">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>4</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O10" s="6">
+      <c r="O15" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E11" s="2">
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E17" s="1">
+        <v>11</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1">
+        <v>11</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.45">
+      <c r="E18" s="1">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="1">
+        <v>12</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="O18" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E19" s="3">
+        <v>13</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="3">
+        <v>13</v>
+      </c>
+      <c r="N19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E12" s="2">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2">
-        <v>6</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O12" s="6">
+        <v>3</v>
+      </c>
+      <c r="O19" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E13" s="2">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="2">
-        <v>7</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E14" s="2">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="2">
-        <v>8</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E15" s="2">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2">
-        <v>9</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="2">
-        <v>10</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E17" s="2">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="2">
-        <v>11</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.45">
-      <c r="E18" s="2">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="2">
-        <v>12</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="5:16" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E19" s="4">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4">
-        <v>13</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="9"/>
+      <c r="P19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\song\Desktop\2018 하반기 방학\개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C1056-38C8-429E-930D-395E7F8D1C67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21FC4C3-7EB4-42FE-BF7E-858729393F05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4AF6358A-5B52-49D4-9750-470F0E4E6DA4}"/>
   </bookViews>
@@ -765,7 +765,7 @@
   <dimension ref="E4:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G9" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -847,11 +847,11 @@
       </c>
       <c r="N7" s="5">
         <f ca="1">INT(RAND()*13)+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7" s="5">
         <f ca="1">MOD(N7,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="6"/>
     </row>
@@ -876,11 +876,11 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" ref="N8:N19" ca="1" si="0">INT(RAND()*13)+1</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O8" s="5">
         <f ca="1">MOD(N8,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="6"/>
     </row>
@@ -901,11 +901,11 @@
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ref="O9:O19" ca="1" si="1">MOD(N9,4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6"/>
     </row>
@@ -926,11 +926,11 @@
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="N11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -974,11 +974,11 @@
       </c>
       <c r="N12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6"/>
     </row>
@@ -997,11 +997,11 @@
       </c>
       <c r="N13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="6"/>
     </row>
@@ -1020,11 +1020,11 @@
       </c>
       <c r="N14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="6"/>
     </row>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P15" s="6"/>
     </row>
@@ -1067,11 +1067,11 @@
       </c>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6"/>
     </row>
@@ -1090,11 +1090,11 @@
       </c>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" s="6"/>
     </row>
@@ -1113,11 +1113,11 @@
       </c>
       <c r="N18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="6"/>
     </row>
@@ -1136,11 +1136,11 @@
       </c>
       <c r="N19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P19" s="8"/>
     </row>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\song\Desktop\2018 하반기 방학\개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21FC4C3-7EB4-42FE-BF7E-858729393F05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA80FB-C695-48AC-A4BF-FBD9325E06C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4AF6358A-5B52-49D4-9750-470F0E4E6DA4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>GroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,12 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -445,6 +443,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -765,7 +769,7 @@
   <dimension ref="E4:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G7:G9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -774,6 +778,7 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="17.4140625" customWidth="1"/>
     <col min="15" max="15" width="14.9140625" customWidth="1"/>
@@ -784,7 +789,7 @@
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="15" t="s">
@@ -801,7 +806,7 @@
       <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -810,8 +815,11 @@
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="24" t="s">
         <v>20</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>14</v>
@@ -830,7 +838,7 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -842,16 +850,19 @@
       <c r="J7" s="21" t="s">
         <v>21</v>
       </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
       <c r="M7" s="1">
         <v>1</v>
       </c>
       <c r="N7" s="5">
         <f ca="1">INT(RAND()*13)+1</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O7" s="5">
         <f ca="1">MOD(N7,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P7" s="6"/>
     </row>
@@ -859,7 +870,7 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -871,16 +882,19 @@
       <c r="J8" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
       <c r="M8" s="1">
         <v>2</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ref="N8:N19" ca="1" si="0">INT(RAND()*13)+1</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="O8" s="5">
         <f ca="1">MOD(N8,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" s="6"/>
     </row>
@@ -888,24 +902,25 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
       <c r="M9" s="1">
         <v>3</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ref="O9:O19" ca="1" si="1">MOD(N9,4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="6"/>
     </row>
@@ -913,24 +928,25 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
       <c r="M10" s="1">
         <v>4</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -938,24 +954,25 @@
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
       <c r="M11" s="1">
         <v>5</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="6"/>
     </row>
@@ -963,7 +980,7 @@
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -974,7 +991,7 @@
       </c>
       <c r="N12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -986,7 +1003,7 @@
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -997,11 +1014,11 @@
       </c>
       <c r="N13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="6"/>
     </row>
@@ -1009,7 +1026,7 @@
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1020,11 +1037,11 @@
       </c>
       <c r="N14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="6"/>
     </row>
@@ -1032,7 +1049,7 @@
       <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1043,11 +1060,11 @@
       </c>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="6"/>
     </row>
@@ -1055,7 +1072,7 @@
       <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1067,11 +1084,11 @@
       </c>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="6"/>
     </row>
@@ -1079,7 +1096,7 @@
       <c r="E17" s="1">
         <v>11</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1090,11 +1107,11 @@
       </c>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="6"/>
     </row>
@@ -1102,7 +1119,7 @@
       <c r="E18" s="1">
         <v>12</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1113,11 +1130,11 @@
       </c>
       <c r="N18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="6"/>
     </row>
@@ -1125,7 +1142,7 @@
       <c r="E19" s="3">
         <v>13</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1136,11 +1153,11 @@
       </c>
       <c r="N19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="8"/>
     </row>

--- a/SQL.xlsx
+++ b/SQL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\song\Desktop\2018 하반기 방학\개인프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA80FB-C695-48AC-A4BF-FBD9325E06C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA6CDC-B6DA-4A9D-88E2-B028CD35F094}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4AF6358A-5B52-49D4-9750-470F0E4E6DA4}"/>
+    <workbookView xWindow="1110" yWindow="1110" windowWidth="14400" windowHeight="7810" xr2:uid="{4AF6358A-5B52-49D4-9750-470F0E4E6DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD0C31-2992-41C7-9A40-826EC9DA44FD}">
   <dimension ref="E4:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -858,11 +858,11 @@
       </c>
       <c r="N7" s="5">
         <f ca="1">INT(RAND()*13)+1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O7" s="5">
         <f ca="1">MOD(N7,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="6"/>
     </row>
@@ -890,11 +890,11 @@
       </c>
       <c r="N8" s="5">
         <f t="shared" ref="N8:N19" ca="1" si="0">INT(RAND()*13)+1</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O8" s="5">
         <f ca="1">MOD(N8,4)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="6"/>
     </row>
@@ -916,11 +916,11 @@
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ref="O9:O19" ca="1" si="1">MOD(N9,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="6"/>
     </row>
@@ -942,11 +942,11 @@
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" s="6"/>
     </row>
@@ -968,11 +968,11 @@
       </c>
       <c r="N11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" s="6"/>
     </row>
@@ -991,11 +991,11 @@
       </c>
       <c r="N12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="6"/>
     </row>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="6"/>
     </row>
@@ -1084,11 +1084,11 @@
       </c>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6"/>
     </row>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="6"/>
     </row>
@@ -1130,11 +1130,11 @@
       </c>
       <c r="N18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="6"/>
     </row>
@@ -1153,11 +1153,11 @@
       </c>
       <c r="N19" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="8"/>
     </row>
